--- a/OutFile/SyntacticParser.xlsx
+++ b/OutFile/SyntacticParser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>token</t>
   </si>
@@ -22,34 +22,28 @@
     <t>(LPAREN, (, 1, 0)</t>
   </si>
   <si>
-    <t>(DIGIT, 114, 1, 1)</t>
-  </si>
-  <si>
-    <t>(PLUS, +, 1, 4)</t>
-  </si>
-  <si>
-    <t>(LETTER, x, 1, 5)</t>
-  </si>
-  <si>
-    <t>(RPAREN, ), 1, 6)</t>
-  </si>
-  <si>
-    <t>(POWER, ^, 1, 7)</t>
-  </si>
-  <si>
-    <t>(LETTER, a, 1, 8)</t>
-  </si>
-  <si>
-    <t>(DIVIDE, /, 1, 9)</t>
-  </si>
-  <si>
-    <t>(DIGIT, 2, 1, 10)</t>
-  </si>
-  <si>
-    <t>(MULTIPLY, *, 1, 11)</t>
-  </si>
-  <si>
-    <t>(LETTER, x, 1, 12)</t>
+    <t>(LETTER, x, 1, 1)</t>
+  </si>
+  <si>
+    <t>(PLUS, +, 1, 2)</t>
+  </si>
+  <si>
+    <t>(DIGIT, 2, 1, 3)</t>
+  </si>
+  <si>
+    <t>(RPAREN, ), 1, 4)</t>
+  </si>
+  <si>
+    <t>(POWER, ^, 1, 5)</t>
+  </si>
+  <si>
+    <t>(DIGIT, 2, 1, 6)</t>
+  </si>
+  <si>
+    <t>(DIVIDE, /, 1, 7)</t>
+  </si>
+  <si>
+    <t>(LETTER, y, 1, 8)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,16 +457,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
